--- a/biology/Écologie/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(A)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(A).xlsx
+++ b/biology/Écologie/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(A)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(A).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(A)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Liste des plantes à graîne par nom scientifique commençant par la lettre A :
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(A)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,19 +526,126 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aba
-Abarema Pittier - Fabaceae
+          <t>Aba</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Abarema Pittier - Fabaceae
 Abarema cochliacarpos
 Abarema cochliocarpum
-Abarema jupunba
-Abo
-Abolboda Kunth - Xyridaceae
-Abolboda pulchella.
-Abr
-Abrus - Fabaceae
-Abrus precatorius -- Black-eyed Susan, rosary pea
-Abu
-Abuta Aubl. - Menispermaceae
+Abarema jupunba</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ab</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Abo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Abolboda Kunth - Xyridaceae
+Abolboda pulchella.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ab</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Abr</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Abrus - Fabaceae
+Abrus precatorius -- Black-eyed Susan, rosary pea</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ab</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Abu</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abuta Aubl. - Menispermaceae
 Abuta convexa
 Abuta selloana
 Abutilon Mill. Malvaceae
@@ -536,34 +655,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Ac</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aca
-Acanthocalycium - fam. Cactacées (Cactus)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Aca</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthocalycium - fam. Cactacées (Cactus)
 Acanthocalycium spiniflorum
 Acanthocereus - fam. Cactacées (Cactus)
 Acanthocereus brasiliensis
@@ -574,103 +698,152 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Ad</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ade
-Adenophaedra
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ade</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adenophaedra
 Adenophaedra grandifolia
 Adenophaedra grandifolia Argoviensis
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Ae</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aec
-Aechmea - Broméliacées
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Aec</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aechmea - Broméliacées
 Aechmea fasciata - Aechméa
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Al</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alb
-Albizia - (voir aussi zone paléarctique)
-Alo
-Alocasia - fam. Araceae (voir aussi zone paléarctique)
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Alb</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Albizia - (voir aussi zone paléarctique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Al</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Alo</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alocasia - fam. Araceae (voir aussi zone paléarctique)
 Alocasia calidora - Oreille d'éléphant
 Aloysia - Verbenaceae
 Aloysia citrodora - Verveine odorante, verveine citronnée
@@ -678,67 +851,77 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>An</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ant
-Anthurium - Aracées - Lien externe
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ant</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthurium - Aracées - Lien externe
 Anthurium  crystallinum - Anthurium
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Ap</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apo
-Aporocactus - fam. Cactacées (Cactus)
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Apo</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aporocactus - fam. Cactacées (Cactus)
 Aporocactus flagelliformis
 Aporocactus martianus
 Aporophyllum - fam. Cactacées (Cactus)
@@ -746,56 +929,197 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Ar</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ara
-Araucaria - Araucariacées
-Araucaria araucana - Pin du Chili
-Ari
-Ariocarpus - fam. Cactacées (Cactus)
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ara</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Araucaria - Araucariacées
+Araucaria araucana - Pin du Chili</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ari</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Ariocarpus - fam. Cactacées (Cactus)
 Ariocarpus agavoides
 Ariocarpus fissuratus
 Ariocarpus kotschoubeyanus
 Ariocarpus retusus
 Ariocarpus scaphirostris
-Aristolochia - fam. Aristolochiacées - (liane)
-Arm
-Armatocereus - fam. Cactacées (Cactus)
+Aristolochia - fam. Aristolochiacées - (liane)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Arm</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Armatocereus - fam. Cactacées (Cactus)
 Armatocereus cartwrightianus
 Armatocereus godingianus
 Armatocereus humilis
-Armatocereus laetus
-Arr
-Arrojadoa - fam. Cactacées (Cactus)
+Armatocereus laetus</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Arr</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Arrojadoa - fam. Cactacées (Cactus)
 Arrojadoa dinae
 Arrojadoa penicillata
-Arrojadoa rhodantha
-Art
-Arthrocereus - fam. Cactacées (Cactus)
+Arrojadoa rhodantha</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Ar</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arthrocereus - fam. Cactacées (Cactus)
 Arthrocereus glaziovii
 Arthrocereus melanurus
 Arthrocereus odorus
@@ -805,34 +1129,39 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>As</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ast
-Astrophytum - fam. Cactacées (Cactus)
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Ast</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Astrophytum - fam. Cactacées (Cactus)
 Astrophytum asterias
 Astrophytum capricorne
 Astrophytum myriostigma
@@ -841,34 +1170,39 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Au</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aus
-Austrocactus - fam. Cactacées (Cactus)
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Aus</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austrocactus - fam. Cactacées (Cactus)
 Austrocactus bertinii
 Austrocactus dusenii
 Austrocactus hibernus
@@ -879,34 +1213,39 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(A)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Az</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Azt
-Aztekium - fam. Cactacées (Cactus)
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Azt</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aztekium - fam. Cactacées (Cactus)
 Aztekium hintonii
 Aztekium hintonii
 Aztekium ritteri
